--- a/excel/excel_test.xlsx
+++ b/excel/excel_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>checkcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,6 +664,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
